--- a/API/Test_cases_Bug_reps.xlsx
+++ b/API/Test_cases_Bug_reps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\JOB\CRTTEST\WORK\JTESTS\CRTTESTS\src\test\java\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B6F4CE-F2BE-4695-ADEE-B4DEEA423994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E795AE6A-7D9F-49F7-9C68-62E8BADF005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1155" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КЭ и ГЗ" sheetId="3" r:id="rId1"/>
@@ -2036,6 +2036,51 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2048,6 +2093,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2059,90 +2116,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2150,168 +2123,45 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2321,26 +2171,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2644,17 +2644,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="88" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -2687,19 +2687,19 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="87" t="s">
         <v>229</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -2713,11 +2713,11 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="5" t="s">
         <v>51</v>
       </c>
@@ -2729,11 +2729,11 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
@@ -2747,11 +2747,11 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="5" t="s">
         <v>49</v>
       </c>
@@ -2765,11 +2765,11 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="5" t="s">
         <v>166</v>
       </c>
@@ -2783,8 +2783,8 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2801,8 +2801,8 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2821,8 +2821,8 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2841,8 +2841,8 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
@@ -2859,8 +2859,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2877,8 +2877,8 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2895,8 +2895,8 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
@@ -2913,8 +2913,8 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="6" t="s">
         <v>23</v>
       </c>
@@ -2931,8 +2931,8 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
@@ -2949,8 +2949,8 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="6" t="s">
         <v>64</v>
       </c>
@@ -2971,8 +2971,8 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
@@ -2989,8 +2989,8 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
@@ -3019,19 +3019,19 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="87" t="s">
         <v>240</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -3045,11 +3045,11 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="5" t="s">
         <v>167</v>
       </c>
@@ -3061,11 +3061,11 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="5" t="s">
         <v>52</v>
       </c>
@@ -3079,11 +3079,11 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="75"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="5" t="s">
         <v>169</v>
       </c>
@@ -3097,8 +3097,8 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
-      <c r="B25" s="91"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -3115,8 +3115,8 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="75"/>
-      <c r="B26" s="91"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="7" t="s">
         <v>17</v>
       </c>
@@ -3135,8 +3135,8 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="75"/>
-      <c r="B27" s="91"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
@@ -3155,8 +3155,8 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="91"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="7" t="s">
         <v>19</v>
       </c>
@@ -3173,8 +3173,8 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="7" t="s">
         <v>21</v>
       </c>
@@ -3191,8 +3191,8 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
-      <c r="B30" s="91"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="7" t="s">
         <v>22</v>
       </c>
@@ -3209,8 +3209,8 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="75"/>
-      <c r="B31" s="91"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="6" t="s">
         <v>23</v>
       </c>
@@ -3227,8 +3227,8 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="75"/>
-      <c r="B32" s="91"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="6" t="s">
         <v>24</v>
       </c>
@@ -3245,8 +3245,8 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="91"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="6" t="s">
         <v>25</v>
       </c>
@@ -3263,8 +3263,8 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="91"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="6" t="s">
         <v>26</v>
       </c>
@@ -3283,8 +3283,8 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="6" t="s">
         <v>27</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="35"/>
       <c r="C36" s="6" t="s">
         <v>65</v>
@@ -3333,19 +3333,19 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="82" t="s">
         <v>255</v>
       </c>
       <c r="F38" s="5">
@@ -3364,11 +3364,11 @@
       <c r="M38" s="24"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="68"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="5">
         <v>-1</v>
       </c>
@@ -3385,11 +3385,11 @@
       <c r="M39" s="24"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="68"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="83"/>
       <c r="F40" s="5">
         <v>1</v>
       </c>
@@ -3404,11 +3404,11 @@
       <c r="M40" s="24"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="68"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="83"/>
       <c r="F41" s="5">
         <v>9998</v>
       </c>
@@ -3423,11 +3423,11 @@
       <c r="M41" s="24"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="75"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="68"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="83"/>
       <c r="F42" s="5">
         <v>9999</v>
       </c>
@@ -3442,15 +3442,15 @@
       <c r="M42" s="24"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="75"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="68"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="83"/>
       <c r="F43" s="5">
         <v>10000</v>
       </c>
-      <c r="G43" s="81"/>
+      <c r="G43" s="72"/>
       <c r="H43" s="41" t="s">
         <v>20</v>
       </c>
@@ -3463,15 +3463,15 @@
       <c r="M43" s="24"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="75"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="68"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="83"/>
       <c r="F44" s="5">
         <v>15000</v>
       </c>
-      <c r="G44" s="81"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="41" t="s">
         <v>20</v>
       </c>
@@ -3484,8 +3484,8 @@
       <c r="M44" s="24"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="75"/>
-      <c r="B45" s="84"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="6" t="s">
         <v>38</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="81"/>
+      <c r="G45" s="72"/>
       <c r="H45" s="41" t="s">
         <v>20</v>
       </c>
@@ -3507,8 +3507,8 @@
       <c r="M45" s="24"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="84"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="6" t="s">
         <v>24</v>
       </c>
@@ -3530,8 +3530,8 @@
       <c r="M46" s="24"/>
     </row>
     <row r="47" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="84"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="6" t="s">
         <v>39</v>
       </c>
@@ -3550,8 +3550,8 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
-      <c r="B48" s="84"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
@@ -3570,8 +3570,8 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="75"/>
-      <c r="B49" s="84"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="6" t="s">
         <v>41</v>
       </c>
@@ -3590,8 +3590,8 @@
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="75"/>
-      <c r="B50" s="84"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="6" t="s">
         <v>42</v>
       </c>
@@ -3610,8 +3610,8 @@
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="75"/>
-      <c r="B51" s="84"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="75"/>
       <c r="C51" s="6" t="s">
         <v>43</v>
       </c>
@@ -3630,8 +3630,8 @@
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="84"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="6" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +3650,8 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="75"/>
-      <c r="B53" s="84"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="75"/>
       <c r="C53" s="12" t="s">
         <v>27</v>
       </c>
@@ -3680,19 +3680,19 @@
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="E55" s="67" t="s">
+      <c r="E55" s="82" t="s">
         <v>248</v>
       </c>
       <c r="F55" s="26">
@@ -3705,11 +3705,11 @@
       <c r="I55" s="29"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="80"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="68"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="83"/>
       <c r="F56" s="5">
         <v>2</v>
       </c>
@@ -3720,11 +3720,11 @@
       <c r="I56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="68"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="83"/>
       <c r="F57" s="5">
         <v>0</v>
       </c>
@@ -3737,11 +3737,11 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="80"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="68"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="83"/>
       <c r="F58" s="5">
         <v>2147483646</v>
       </c>
@@ -3752,15 +3752,15 @@
       <c r="I58" s="32"/>
     </row>
     <row r="59" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="80"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="68"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="83"/>
       <c r="F59" s="5">
         <v>2147483648</v>
       </c>
-      <c r="G59" s="81"/>
+      <c r="G59" s="72"/>
       <c r="H59" s="41" t="s">
         <v>20</v>
       </c>
@@ -3769,15 +3769,15 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="80"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="68"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="83"/>
       <c r="F60" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="G60" s="81"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="41" t="s">
         <v>20</v>
       </c>
@@ -3786,8 +3786,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="80"/>
-      <c r="B61" s="84"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="6" t="s">
         <v>38</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>126</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="81"/>
+      <c r="G61" s="72"/>
       <c r="H61" s="41" t="s">
         <v>20</v>
       </c>
@@ -3805,8 +3805,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="80"/>
-      <c r="B62" s="84"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="6" t="s">
         <v>24</v>
       </c>
@@ -3824,8 +3824,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="80"/>
-      <c r="B63" s="84"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="75"/>
       <c r="C63" s="6" t="s">
         <v>39</v>
       </c>
@@ -3843,8 +3843,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="80"/>
-      <c r="B64" s="84"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="75"/>
       <c r="C64" s="6" t="s">
         <v>41</v>
       </c>
@@ -3862,8 +3862,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="80"/>
-      <c r="B65" s="84"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="6" t="s">
         <v>42</v>
       </c>
@@ -3881,8 +3881,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="80"/>
-      <c r="B66" s="84"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="6" t="s">
         <v>43</v>
       </c>
@@ -3900,8 +3900,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="80"/>
-      <c r="B67" s="84"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="6" t="s">
         <v>44</v>
       </c>
@@ -3919,8 +3919,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="80"/>
-      <c r="B68" s="84"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="12" t="s">
         <v>27</v>
       </c>
@@ -3936,8 +3936,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="80"/>
-      <c r="B69" s="85"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="76"/>
       <c r="C69" s="8" t="s">
         <v>133</v>
       </c>
@@ -3954,6 +3954,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="A38:A53"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="A21:A36"/>
@@ -3970,13 +3977,6 @@
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="B38:B53"/>
     <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I38" location="Баги!A6" display="BUG5" xr:uid="{CB00FDB8-EE18-4F6B-8F33-514FDB1EE939}"/>
@@ -4036,14 +4036,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -4052,10 +4052,10 @@
       <c r="B2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="95"/>
+      <c r="D2" s="168"/>
       <c r="E2" s="23" t="s">
         <v>69</v>
       </c>
@@ -4070,46 +4070,46 @@
       <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="97"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="53"/>
       <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="65" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="152"/>
+      <c r="E4" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="143"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="121"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="121"/>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
@@ -4118,58 +4118,58 @@
       <c r="B7" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="53"/>
       <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="171" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="65" t="s">
+      <c r="B8" s="172"/>
+      <c r="C8" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="123" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="152"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
     </row>
     <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="160"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
     </row>
     <row r="10" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="162"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="65"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="5" t="s">
         <v>210</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="121"/>
+      <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
@@ -4178,179 +4178,179 @@
       <c r="B11" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="97"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="53"/>
       <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="65" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="152"/>
+      <c r="E12" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="120"/>
       <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="143"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="65"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="121"/>
+      <c r="F14" s="122"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
         <v>173</v>
       </c>
       <c r="B15" s="56"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="126" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="113"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="53"/>
       <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="73" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="152"/>
+      <c r="E16" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="120"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="143"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="121"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="103"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="143"/>
+      <c r="F18" s="121"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="103"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="86" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="77" t="s">
         <v>295</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="143"/>
+      <c r="E19" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="121"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="103"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="65" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="143"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="121"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="143"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="121"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="121"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="122"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
         <v>174</v>
       </c>
       <c r="B23" s="56"/>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="113"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="57"/>
       <c r="F23" s="51"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="107" t="s">
+      <c r="A24" s="92"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="112" t="s">
+      <c r="D24" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="152"/>
+      <c r="E24" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="120"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="103"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="143"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="121"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="121"/>
+      <c r="F26" s="122"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
@@ -4359,54 +4359,54 @@
       <c r="B27" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="109"/>
+      <c r="D27" s="170"/>
       <c r="E27" s="53"/>
       <c r="F27" s="51"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="101"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="73" t="s">
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="152"/>
+      <c r="E28" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="120"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="103"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="143"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="121"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="98" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="143"/>
+      <c r="E30" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="121"/>
     </row>
     <row r="31" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="105"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="121"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="122"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="51" t="s">
@@ -4421,46 +4421,46 @@
       <c r="F32" s="51"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="101"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="88" t="s">
+      <c r="A33" s="92"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="98" t="s">
+      <c r="D33" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="152"/>
+      <c r="E33" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="120"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="103"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="143"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="121"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="103"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="98" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="143"/>
+      <c r="E35" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="121"/>
     </row>
     <row r="36" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="105"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="121"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="122"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="51" t="s">
@@ -4475,68 +4475,68 @@
       <c r="F37" s="51"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="101"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="73" t="s">
+      <c r="A38" s="92"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="98" t="s">
+      <c r="D38" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="152"/>
+      <c r="E38" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="120"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="103"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="143"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="121"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="103"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="98" t="s">
+      <c r="A40" s="94"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="143"/>
+      <c r="E40" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="121"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="103"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="143"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="121"/>
     </row>
     <row r="42" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="103"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="112" t="s">
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="143"/>
+      <c r="E42" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="121"/>
     </row>
     <row r="43" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="D43" s="121"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="121"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="122"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="51" t="s">
@@ -4551,81 +4551,81 @@
       <c r="F44" s="51"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="101"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="73" t="s">
+      <c r="A45" s="92"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="D45" s="98" t="s">
+      <c r="D45" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="152"/>
+      <c r="E45" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="120"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="103"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="143"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="121"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="103"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="73"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="87"/>
       <c r="D47" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E47" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="143"/>
+      <c r="F47" s="121"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="103"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="112" t="s">
+      <c r="A48" s="94"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="143"/>
+      <c r="E48" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="121"/>
     </row>
     <row r="49" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="103"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="143"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="121"/>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="103"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="73" t="s">
+      <c r="A50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="D50" s="120"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="143"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="121"/>
     </row>
     <row r="51" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="103"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="121"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="122"/>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="60"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="99"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="98"/>
       <c r="E52" s="53"/>
       <c r="F52" s="51"/>
     </row>
@@ -4634,72 +4634,72 @@
         <v>179</v>
       </c>
       <c r="B53" s="56"/>
-      <c r="C53" s="117" t="s">
+      <c r="C53" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="118"/>
+      <c r="D53" s="161"/>
       <c r="E53" s="53"/>
       <c r="F53" s="51"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="101"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="119" t="s">
+      <c r="A54" s="92"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="162" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="112" t="s">
+      <c r="D54" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="152"/>
+      <c r="E54" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="120"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="103"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="150"/>
-      <c r="F55" s="143"/>
+      <c r="A55" s="94"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="121"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="103"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="143"/>
+      <c r="A56" s="94"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="121"/>
     </row>
     <row r="57" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="103"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="143"/>
+      <c r="A57" s="94"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="162"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="121"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="103"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="112" t="s">
+      <c r="A58" s="94"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="163" t="s">
         <v>298</v>
       </c>
-      <c r="D58" s="112" t="s">
+      <c r="D58" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="143"/>
+      <c r="E58" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="121"/>
     </row>
     <row r="59" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="105"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="121"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="122"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="51" t="s">
@@ -4714,38 +4714,38 @@
       <c r="F60" s="61"/>
     </row>
     <row r="61" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="101"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="65" t="s">
+      <c r="A61" s="92"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="98" t="s">
+      <c r="D61" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="142"/>
+      <c r="E61" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="144"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="103"/>
-      <c r="B62" s="104"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="128"/>
-      <c r="F62" s="143"/>
+      <c r="A62" s="94"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="121"/>
     </row>
     <row r="63" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="105"/>
-      <c r="B63" s="106"/>
-      <c r="C63" s="65"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="80"/>
       <c r="D63" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E63" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="121"/>
+      <c r="F63" s="122"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="51" t="s">
@@ -4760,40 +4760,40 @@
       <c r="F64" s="51"/>
     </row>
     <row r="65" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="101"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="65" t="s">
+      <c r="A65" s="92"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="98" t="s">
+      <c r="D65" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="129" t="s">
+      <c r="E65" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="140" t="s">
+      <c r="F65" s="142" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="103"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="141"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="143"/>
     </row>
     <row r="67" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="105"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="65"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="80"/>
       <c r="D67" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="141"/>
+      <c r="F67" s="143"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="51" t="s">
@@ -4808,40 +4808,40 @@
       <c r="F68" s="51"/>
     </row>
     <row r="69" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="101"/>
-      <c r="B69" s="102"/>
-      <c r="C69" s="65" t="s">
+      <c r="A69" s="92"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="98" t="s">
+      <c r="D69" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="E69" s="129" t="s">
+      <c r="E69" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="141" t="s">
+      <c r="F69" s="143" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="103"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="141"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="143"/>
     </row>
     <row r="71" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="105"/>
-      <c r="B71" s="106"/>
-      <c r="C71" s="65"/>
+      <c r="A71" s="96"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F71" s="141"/>
+      <c r="F71" s="143"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="51" t="s">
@@ -4856,40 +4856,40 @@
       <c r="F72" s="51"/>
     </row>
     <row r="73" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="101"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="65" t="s">
+      <c r="A73" s="92"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="98" t="s">
+      <c r="D73" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="129" t="s">
+      <c r="E73" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="140" t="s">
+      <c r="F73" s="142" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="103"/>
-      <c r="B74" s="104"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="141"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="143"/>
     </row>
     <row r="75" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="105"/>
-      <c r="B75" s="106"/>
-      <c r="C75" s="98"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="99"/>
       <c r="D75" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F75" s="144"/>
+      <c r="F75" s="145"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="51" t="s">
@@ -4906,75 +4906,75 @@
       <c r="F76" s="51"/>
     </row>
     <row r="77" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="171" t="s">
+      <c r="A77" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="B77" s="172"/>
-      <c r="C77" s="114" t="s">
+      <c r="B77" s="102"/>
+      <c r="C77" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="D77" s="98" t="s">
+      <c r="D77" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="130" t="s">
+      <c r="E77" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="145" t="s">
+      <c r="F77" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="G77" s="148"/>
-      <c r="H77" s="149"/>
-      <c r="I77" s="149"/>
+      <c r="G77" s="149"/>
+      <c r="H77" s="150"/>
+      <c r="I77" s="150"/>
     </row>
     <row r="78" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="173"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="131"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="149"/>
-      <c r="I78" s="149"/>
+      <c r="A78" s="103"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="153"/>
+      <c r="F78" s="147"/>
+      <c r="G78" s="149"/>
+      <c r="H78" s="150"/>
+      <c r="I78" s="150"/>
     </row>
     <row r="79" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="173"/>
-      <c r="B79" s="174"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="98" t="s">
+      <c r="A79" s="103"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E79" s="130" t="s">
+      <c r="E79" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="F79" s="146"/>
-      <c r="G79" s="148"/>
-      <c r="H79" s="149"/>
-      <c r="I79" s="149"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="149"/>
+      <c r="H79" s="150"/>
+      <c r="I79" s="150"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="173"/>
-      <c r="B80" s="174"/>
-      <c r="C80" s="98" t="s">
+      <c r="A80" s="103"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="D80" s="120"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="146"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="149"/>
-      <c r="I80" s="149"/>
+      <c r="D80" s="118"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="147"/>
+      <c r="G80" s="149"/>
+      <c r="H80" s="150"/>
+      <c r="I80" s="150"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="175"/>
-      <c r="B81" s="176"/>
-      <c r="C81" s="170"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="147"/>
-      <c r="G81" s="148"/>
-      <c r="H81" s="149"/>
-      <c r="I81" s="149"/>
+      <c r="A81" s="105"/>
+      <c r="B81" s="106"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="98"/>
+      <c r="E81" s="153"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="149"/>
+      <c r="H81" s="150"/>
+      <c r="I81" s="150"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="51" t="s">
@@ -4983,189 +4983,189 @@
       <c r="B82" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="115" t="s">
+      <c r="C82" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="D82" s="116"/>
+      <c r="D82" s="156"/>
       <c r="E82" s="53"/>
       <c r="F82" s="51"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="101"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="73" t="s">
+      <c r="A83" s="92"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="98" t="s">
+      <c r="D83" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="133"/>
+      <c r="E83" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="131"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="103"/>
-      <c r="B84" s="104"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="128"/>
-      <c r="F84" s="134"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="98"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="132"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="103"/>
-      <c r="B85" s="104"/>
-      <c r="C85" s="73"/>
+      <c r="A85" s="94"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="87"/>
       <c r="D85" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E85" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="134"/>
+      <c r="F85" s="132"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="103"/>
-      <c r="B86" s="104"/>
-      <c r="C86" s="73"/>
+      <c r="A86" s="94"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="87"/>
       <c r="D86" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E86" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="134"/>
+      <c r="E86" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="132"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="103"/>
-      <c r="B87" s="104"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="98" t="s">
+      <c r="A87" s="94"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="E87" s="126"/>
-      <c r="F87" s="134"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="132"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="103"/>
-      <c r="B88" s="104"/>
-      <c r="C88" s="86" t="s">
+      <c r="A88" s="94"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D88" s="120"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="134"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="132"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="105"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="135"/>
+      <c r="A89" s="96"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="133"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="51" t="s">
         <v>189</v>
       </c>
       <c r="B90" s="56"/>
-      <c r="C90" s="115" t="s">
+      <c r="C90" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="116"/>
+      <c r="D90" s="156"/>
       <c r="E90" s="53"/>
       <c r="F90" s="51"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="101"/>
-      <c r="B91" s="102"/>
-      <c r="C91" s="73" t="s">
+      <c r="A91" s="92"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="D91" s="98" t="s">
+      <c r="D91" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E91" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="133"/>
+      <c r="E91" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="131"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="103"/>
-      <c r="B92" s="104"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="128"/>
-      <c r="F92" s="134"/>
+      <c r="A92" s="94"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="98"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="132"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="103"/>
-      <c r="B93" s="104"/>
-      <c r="C93" s="73"/>
+      <c r="A93" s="94"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="87"/>
       <c r="D93" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E93" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="134"/>
+      <c r="F93" s="132"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="103"/>
-      <c r="B94" s="104"/>
-      <c r="C94" s="73"/>
+      <c r="A94" s="94"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="87"/>
       <c r="D94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="134"/>
+      <c r="E94" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="132"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="103"/>
-      <c r="B95" s="104"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="98" t="s">
+      <c r="A95" s="94"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="126"/>
-      <c r="F95" s="134"/>
+      <c r="E95" s="124"/>
+      <c r="F95" s="132"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="103"/>
-      <c r="B96" s="104"/>
-      <c r="C96" s="86" t="s">
+      <c r="A96" s="94"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="120"/>
-      <c r="E96" s="126"/>
-      <c r="F96" s="134"/>
+      <c r="D96" s="118"/>
+      <c r="E96" s="124"/>
+      <c r="F96" s="132"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="105"/>
-      <c r="B97" s="106"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="127"/>
-      <c r="F97" s="135"/>
+      <c r="A97" s="96"/>
+      <c r="B97" s="97"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="98"/>
+      <c r="E97" s="125"/>
+      <c r="F97" s="133"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="51" t="s">
         <v>190</v>
       </c>
       <c r="B98" s="56"/>
-      <c r="C98" s="122" t="s">
+      <c r="C98" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="D98" s="122"/>
+      <c r="D98" s="157"/>
       <c r="E98" s="53"/>
       <c r="F98" s="51"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="101"/>
-      <c r="B99" s="102"/>
-      <c r="C99" s="73" t="s">
+      <c r="A99" s="92"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="87" t="s">
         <v>122</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -5174,44 +5174,44 @@
       <c r="E99" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="133"/>
+      <c r="F99" s="131"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="103"/>
-      <c r="B100" s="104"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="98" t="s">
+      <c r="A100" s="94"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="134"/>
+      <c r="E100" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="132"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="105"/>
-      <c r="B101" s="106"/>
-      <c r="C101" s="110"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="127"/>
-      <c r="F101" s="135"/>
+      <c r="A101" s="96"/>
+      <c r="B101" s="97"/>
+      <c r="C101" s="158"/>
+      <c r="D101" s="98"/>
+      <c r="E101" s="125"/>
+      <c r="F101" s="133"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="51" t="s">
         <v>191</v>
       </c>
       <c r="B102" s="56"/>
-      <c r="C102" s="115" t="s">
+      <c r="C102" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="D102" s="116"/>
+      <c r="D102" s="156"/>
       <c r="E102" s="53"/>
       <c r="F102" s="51"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="101"/>
-      <c r="B103" s="102"/>
-      <c r="C103" s="65" t="s">
+      <c r="A103" s="92"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="80" t="s">
         <v>97</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -5220,51 +5220,51 @@
       <c r="E103" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="133"/>
+      <c r="F103" s="131"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="103"/>
-      <c r="B104" s="104"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="98" t="s">
+      <c r="A104" s="94"/>
+      <c r="B104" s="95"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="E104" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="134"/>
+      <c r="E104" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="132"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="103"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="137"/>
-      <c r="F105" s="134"/>
+      <c r="A105" s="94"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="98"/>
+      <c r="E105" s="129"/>
+      <c r="F105" s="132"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="103"/>
-      <c r="B106" s="104"/>
-      <c r="C106" s="98" t="s">
+      <c r="A106" s="94"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="99" t="s">
         <v>302</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="134"/>
+      <c r="E106" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="132"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="105"/>
-      <c r="B107" s="106"/>
-      <c r="C107" s="170"/>
+      <c r="A107" s="96"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="100"/>
       <c r="D107" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E107" s="137"/>
-      <c r="F107" s="135"/>
+      <c r="E107" s="129"/>
+      <c r="F107" s="133"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="51" t="s">
@@ -5273,800 +5273,865 @@
       <c r="B108" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="97" t="s">
+      <c r="C108" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="D108" s="97"/>
+      <c r="D108" s="139"/>
       <c r="E108" s="53"/>
       <c r="F108" s="51"/>
     </row>
     <row r="109" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="101"/>
-      <c r="B109" s="102"/>
-      <c r="C109" s="65" t="s">
+      <c r="A109" s="92"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="D109" s="98" t="s">
+      <c r="D109" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E109" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="133"/>
+      <c r="E109" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="131"/>
     </row>
     <row r="110" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="103"/>
-      <c r="B110" s="104"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="99"/>
-      <c r="E110" s="137"/>
-      <c r="F110" s="134"/>
+      <c r="A110" s="94"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="129"/>
+      <c r="F110" s="132"/>
     </row>
     <row r="111" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="103"/>
-      <c r="B111" s="104"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="98" t="s">
+      <c r="A111" s="94"/>
+      <c r="B111" s="95"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E111" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="134"/>
+      <c r="E111" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="132"/>
     </row>
     <row r="112" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="105"/>
-      <c r="B112" s="106"/>
+      <c r="A112" s="96"/>
+      <c r="B112" s="97"/>
       <c r="C112" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D112" s="135"/>
-      <c r="E112" s="137"/>
-      <c r="F112" s="135"/>
+      <c r="D112" s="133"/>
+      <c r="E112" s="129"/>
+      <c r="F112" s="133"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="51" t="s">
         <v>193</v>
       </c>
       <c r="B113" s="56"/>
-      <c r="C113" s="97" t="s">
+      <c r="C113" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="D113" s="97"/>
+      <c r="D113" s="139"/>
       <c r="E113" s="53"/>
       <c r="F113" s="51"/>
     </row>
     <row r="114" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="101"/>
-      <c r="B114" s="102"/>
-      <c r="C114" s="65" t="s">
+      <c r="A114" s="92"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="D114" s="98" t="s">
+      <c r="D114" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E114" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="133"/>
+      <c r="E114" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="131"/>
     </row>
     <row r="115" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="103"/>
-      <c r="B115" s="104"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="99"/>
-      <c r="E115" s="137"/>
-      <c r="F115" s="134"/>
+      <c r="A115" s="94"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="129"/>
+      <c r="F115" s="132"/>
     </row>
     <row r="116" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="103"/>
-      <c r="B116" s="104"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="98" t="s">
+      <c r="A116" s="94"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="80"/>
+      <c r="D116" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E116" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="134"/>
+      <c r="E116" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="132"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="103"/>
-      <c r="B117" s="104"/>
-      <c r="C117" s="86" t="s">
+      <c r="A117" s="94"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="D117" s="134"/>
-      <c r="E117" s="151"/>
-      <c r="F117" s="134"/>
+      <c r="D117" s="132"/>
+      <c r="E117" s="130"/>
+      <c r="F117" s="132"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="105"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="99"/>
-      <c r="D118" s="135"/>
-      <c r="E118" s="137"/>
-      <c r="F118" s="135"/>
+      <c r="A118" s="96"/>
+      <c r="B118" s="97"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="133"/>
+      <c r="E118" s="129"/>
+      <c r="F118" s="133"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="51" t="s">
         <v>194</v>
       </c>
       <c r="B119" s="56"/>
-      <c r="C119" s="97" t="s">
+      <c r="C119" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="D119" s="97"/>
+      <c r="D119" s="139"/>
       <c r="E119" s="53"/>
       <c r="F119" s="51"/>
     </row>
     <row r="120" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="101"/>
-      <c r="B120" s="102"/>
-      <c r="C120" s="65" t="s">
+      <c r="A120" s="92"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D120" s="98" t="s">
+      <c r="D120" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E120" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="133"/>
+      <c r="E120" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="131"/>
     </row>
     <row r="121" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="103"/>
-      <c r="B121" s="104"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="99"/>
-      <c r="E121" s="137"/>
-      <c r="F121" s="134"/>
+      <c r="A121" s="94"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="98"/>
+      <c r="E121" s="129"/>
+      <c r="F121" s="132"/>
     </row>
     <row r="122" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="103"/>
-      <c r="B122" s="104"/>
-      <c r="C122" s="65"/>
+      <c r="A122" s="94"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="80"/>
       <c r="D122" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E122" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="134"/>
+      <c r="F122" s="132"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="103"/>
-      <c r="B123" s="104"/>
-      <c r="C123" s="86" t="s">
+      <c r="A123" s="94"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="77" t="s">
         <v>303</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E123" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="134"/>
+      <c r="E123" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="132"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="103"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="120"/>
-      <c r="D124" s="107" t="s">
+      <c r="A124" s="94"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="118"/>
+      <c r="D124" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="E124" s="150"/>
-      <c r="F124" s="134"/>
+      <c r="E124" s="111"/>
+      <c r="F124" s="132"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="103"/>
-      <c r="B125" s="104"/>
-      <c r="C125" s="120"/>
-      <c r="D125" s="107"/>
-      <c r="E125" s="150"/>
-      <c r="F125" s="134"/>
+      <c r="A125" s="94"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="118"/>
+      <c r="D125" s="119"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="132"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="105"/>
-      <c r="B126" s="106"/>
-      <c r="C126" s="99"/>
-      <c r="D126" s="107"/>
-      <c r="E126" s="128"/>
-      <c r="F126" s="135"/>
+      <c r="A126" s="96"/>
+      <c r="B126" s="97"/>
+      <c r="C126" s="98"/>
+      <c r="D126" s="119"/>
+      <c r="E126" s="112"/>
+      <c r="F126" s="133"/>
     </row>
     <row r="127" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="51" t="s">
         <v>196</v>
       </c>
       <c r="B127" s="56"/>
-      <c r="C127" s="97" t="s">
+      <c r="C127" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="D127" s="97"/>
+      <c r="D127" s="139"/>
       <c r="E127" s="53"/>
       <c r="F127" s="51"/>
     </row>
     <row r="128" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="101"/>
-      <c r="B128" s="102"/>
-      <c r="C128" s="65" t="s">
+      <c r="A128" s="92"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="D128" s="98" t="s">
+      <c r="D128" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E128" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="133"/>
+      <c r="E128" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="131"/>
     </row>
     <row r="129" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="103"/>
-      <c r="B129" s="104"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="99"/>
-      <c r="E129" s="137"/>
-      <c r="F129" s="134"/>
+      <c r="A129" s="94"/>
+      <c r="B129" s="95"/>
+      <c r="C129" s="80"/>
+      <c r="D129" s="98"/>
+      <c r="E129" s="129"/>
+      <c r="F129" s="132"/>
     </row>
     <row r="130" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="103"/>
-      <c r="B130" s="104"/>
-      <c r="C130" s="65"/>
+      <c r="A130" s="94"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="80"/>
       <c r="D130" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E130" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F130" s="134"/>
+      <c r="F130" s="132"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="103"/>
-      <c r="B131" s="104"/>
-      <c r="C131" s="86" t="s">
+      <c r="A131" s="94"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="77" t="s">
         <v>272</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E131" s="167" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="134"/>
+      <c r="E131" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="132"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="103"/>
-      <c r="B132" s="104"/>
-      <c r="C132" s="168"/>
-      <c r="D132" s="107" t="s">
+      <c r="A132" s="94"/>
+      <c r="B132" s="95"/>
+      <c r="C132" s="114"/>
+      <c r="D132" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="E132" s="150"/>
-      <c r="F132" s="134"/>
+      <c r="E132" s="111"/>
+      <c r="F132" s="132"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="103"/>
-      <c r="B133" s="104"/>
-      <c r="C133" s="168"/>
-      <c r="D133" s="107"/>
-      <c r="E133" s="150"/>
-      <c r="F133" s="134"/>
+      <c r="A133" s="94"/>
+      <c r="B133" s="95"/>
+      <c r="C133" s="114"/>
+      <c r="D133" s="119"/>
+      <c r="E133" s="111"/>
+      <c r="F133" s="132"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="105"/>
-      <c r="B134" s="106"/>
-      <c r="C134" s="169"/>
-      <c r="D134" s="107"/>
-      <c r="E134" s="128"/>
-      <c r="F134" s="135"/>
+      <c r="A134" s="96"/>
+      <c r="B134" s="97"/>
+      <c r="C134" s="115"/>
+      <c r="D134" s="119"/>
+      <c r="E134" s="112"/>
+      <c r="F134" s="133"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="51" t="s">
         <v>197</v>
       </c>
       <c r="B135" s="56"/>
-      <c r="C135" s="97" t="s">
+      <c r="C135" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="D135" s="97"/>
+      <c r="D135" s="139"/>
       <c r="E135" s="53"/>
       <c r="F135" s="51"/>
     </row>
     <row r="136" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="101"/>
-      <c r="B136" s="102"/>
-      <c r="C136" s="65" t="s">
+      <c r="A136" s="92"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="D136" s="98" t="s">
+      <c r="D136" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E136" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="133"/>
+      <c r="E136" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="131"/>
     </row>
     <row r="137" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="103"/>
-      <c r="B137" s="104"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="99"/>
-      <c r="E137" s="137"/>
-      <c r="F137" s="134"/>
+      <c r="A137" s="94"/>
+      <c r="B137" s="95"/>
+      <c r="C137" s="80"/>
+      <c r="D137" s="98"/>
+      <c r="E137" s="129"/>
+      <c r="F137" s="132"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="103"/>
-      <c r="B138" s="104"/>
-      <c r="C138" s="65"/>
+      <c r="A138" s="94"/>
+      <c r="B138" s="95"/>
+      <c r="C138" s="80"/>
       <c r="D138" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E138" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F138" s="134"/>
+      <c r="F138" s="132"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="103"/>
-      <c r="B139" s="104"/>
-      <c r="C139" s="86" t="s">
+      <c r="A139" s="94"/>
+      <c r="B139" s="95"/>
+      <c r="C139" s="77" t="s">
         <v>272</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E139" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="134"/>
+      <c r="E139" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="132"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="103"/>
-      <c r="B140" s="104"/>
-      <c r="C140" s="168"/>
-      <c r="D140" s="107" t="s">
+      <c r="A140" s="94"/>
+      <c r="B140" s="95"/>
+      <c r="C140" s="114"/>
+      <c r="D140" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="E140" s="150"/>
-      <c r="F140" s="134"/>
+      <c r="E140" s="111"/>
+      <c r="F140" s="132"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="103"/>
-      <c r="B141" s="104"/>
-      <c r="C141" s="168"/>
-      <c r="D141" s="107"/>
-      <c r="E141" s="150"/>
-      <c r="F141" s="134"/>
+      <c r="A141" s="94"/>
+      <c r="B141" s="95"/>
+      <c r="C141" s="114"/>
+      <c r="D141" s="119"/>
+      <c r="E141" s="111"/>
+      <c r="F141" s="132"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="105"/>
-      <c r="B142" s="106"/>
-      <c r="C142" s="169"/>
-      <c r="D142" s="107"/>
-      <c r="E142" s="128"/>
-      <c r="F142" s="135"/>
+      <c r="A142" s="96"/>
+      <c r="B142" s="97"/>
+      <c r="C142" s="115"/>
+      <c r="D142" s="119"/>
+      <c r="E142" s="112"/>
+      <c r="F142" s="133"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="51" t="s">
         <v>198</v>
       </c>
       <c r="B143" s="56"/>
-      <c r="C143" s="97" t="s">
+      <c r="C143" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="D143" s="97"/>
+      <c r="D143" s="139"/>
       <c r="E143" s="53"/>
       <c r="F143" s="51"/>
     </row>
     <row r="144" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="101"/>
-      <c r="B144" s="102"/>
-      <c r="C144" s="65" t="s">
+      <c r="A144" s="92"/>
+      <c r="B144" s="93"/>
+      <c r="C144" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="D144" s="98" t="s">
+      <c r="D144" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E144" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="152"/>
+      <c r="E144" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="120"/>
     </row>
     <row r="145" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="103"/>
-      <c r="B145" s="104"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="99"/>
-      <c r="E145" s="137"/>
-      <c r="F145" s="143"/>
+      <c r="A145" s="94"/>
+      <c r="B145" s="95"/>
+      <c r="C145" s="80"/>
+      <c r="D145" s="98"/>
+      <c r="E145" s="129"/>
+      <c r="F145" s="121"/>
     </row>
     <row r="146" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="103"/>
-      <c r="B146" s="104"/>
-      <c r="C146" s="65"/>
+      <c r="A146" s="94"/>
+      <c r="B146" s="95"/>
+      <c r="C146" s="80"/>
       <c r="D146" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E146" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F146" s="143"/>
+      <c r="F146" s="121"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="103"/>
-      <c r="B147" s="104"/>
+      <c r="A147" s="94"/>
+      <c r="B147" s="95"/>
       <c r="C147" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E147" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="143"/>
+      <c r="E147" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="121"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="103"/>
-      <c r="B148" s="104"/>
-      <c r="C148" s="73" t="s">
+      <c r="A148" s="94"/>
+      <c r="B148" s="95"/>
+      <c r="C148" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D148" s="107" t="s">
+      <c r="D148" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="E148" s="150"/>
-      <c r="F148" s="143"/>
+      <c r="E148" s="111"/>
+      <c r="F148" s="121"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="103"/>
-      <c r="B149" s="104"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="107"/>
-      <c r="E149" s="150"/>
-      <c r="F149" s="143"/>
+      <c r="A149" s="94"/>
+      <c r="B149" s="95"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="119"/>
+      <c r="E149" s="111"/>
+      <c r="F149" s="121"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="105"/>
-      <c r="B150" s="106"/>
-      <c r="C150" s="65"/>
-      <c r="D150" s="107"/>
-      <c r="E150" s="128"/>
-      <c r="F150" s="121"/>
+      <c r="A150" s="96"/>
+      <c r="B150" s="97"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="119"/>
+      <c r="E150" s="112"/>
+      <c r="F150" s="122"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="51" t="s">
         <v>200</v>
       </c>
       <c r="B151" s="56"/>
-      <c r="C151" s="96" t="s">
+      <c r="C151" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="D151" s="97"/>
+      <c r="D151" s="139"/>
       <c r="E151" s="53"/>
       <c r="F151" s="51"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="101"/>
-      <c r="B152" s="102"/>
-      <c r="C152" s="65" t="s">
+      <c r="A152" s="92"/>
+      <c r="B152" s="93"/>
+      <c r="C152" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="D152" s="98" t="s">
+      <c r="D152" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="E152" s="155" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="133"/>
+      <c r="E152" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="131"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="103"/>
-      <c r="B153" s="104"/>
-      <c r="C153" s="65"/>
-      <c r="D153" s="120"/>
-      <c r="E153" s="156"/>
-      <c r="F153" s="134"/>
+      <c r="A153" s="94"/>
+      <c r="B153" s="95"/>
+      <c r="C153" s="80"/>
+      <c r="D153" s="118"/>
+      <c r="E153" s="137"/>
+      <c r="F153" s="132"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="103"/>
-      <c r="B154" s="104"/>
-      <c r="C154" s="65"/>
-      <c r="D154" s="99"/>
-      <c r="E154" s="157"/>
-      <c r="F154" s="134"/>
+      <c r="A154" s="94"/>
+      <c r="B154" s="95"/>
+      <c r="C154" s="80"/>
+      <c r="D154" s="98"/>
+      <c r="E154" s="138"/>
+      <c r="F154" s="132"/>
     </row>
     <row r="155" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="103"/>
-      <c r="B155" s="104"/>
-      <c r="C155" s="65"/>
+      <c r="A155" s="94"/>
+      <c r="B155" s="95"/>
+      <c r="C155" s="80"/>
       <c r="D155" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E155" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F155" s="134"/>
+      <c r="F155" s="132"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="103"/>
-      <c r="B156" s="104"/>
-      <c r="C156" s="86" t="s">
+      <c r="A156" s="94"/>
+      <c r="B156" s="95"/>
+      <c r="C156" s="77" t="s">
         <v>304</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E156" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" s="134"/>
+      <c r="E156" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="132"/>
     </row>
     <row r="157" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="103"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="168"/>
-      <c r="D157" s="65" t="s">
+      <c r="A157" s="94"/>
+      <c r="B157" s="95"/>
+      <c r="C157" s="114"/>
+      <c r="D157" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="E157" s="153"/>
-      <c r="F157" s="134"/>
+      <c r="E157" s="134"/>
+      <c r="F157" s="132"/>
     </row>
     <row r="158" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="103"/>
-      <c r="B158" s="104"/>
-      <c r="C158" s="168"/>
-      <c r="D158" s="65"/>
-      <c r="E158" s="153"/>
-      <c r="F158" s="134"/>
+      <c r="A158" s="94"/>
+      <c r="B158" s="95"/>
+      <c r="C158" s="114"/>
+      <c r="D158" s="80"/>
+      <c r="E158" s="134"/>
+      <c r="F158" s="132"/>
     </row>
     <row r="159" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="103"/>
-      <c r="B159" s="104"/>
-      <c r="C159" s="168"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="153"/>
-      <c r="F159" s="134"/>
+      <c r="A159" s="94"/>
+      <c r="B159" s="95"/>
+      <c r="C159" s="114"/>
+      <c r="D159" s="80"/>
+      <c r="E159" s="134"/>
+      <c r="F159" s="132"/>
     </row>
     <row r="160" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="105"/>
-      <c r="B160" s="106"/>
-      <c r="C160" s="169"/>
-      <c r="D160" s="65"/>
-      <c r="E160" s="154"/>
-      <c r="F160" s="135"/>
+      <c r="A160" s="96"/>
+      <c r="B160" s="97"/>
+      <c r="C160" s="115"/>
+      <c r="D160" s="80"/>
+      <c r="E160" s="135"/>
+      <c r="F160" s="133"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="51" t="s">
         <v>201</v>
       </c>
       <c r="B161" s="56"/>
-      <c r="C161" s="96" t="s">
+      <c r="C161" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="D161" s="97"/>
+      <c r="D161" s="139"/>
       <c r="E161" s="53"/>
       <c r="F161" s="51"/>
     </row>
     <row r="162" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="101"/>
-      <c r="B162" s="102"/>
-      <c r="C162" s="65" t="s">
+      <c r="A162" s="92"/>
+      <c r="B162" s="93"/>
+      <c r="C162" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="D162" s="98" t="s">
+      <c r="D162" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E162" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="133"/>
+      <c r="E162" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="131"/>
     </row>
     <row r="163" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="103"/>
-      <c r="B163" s="104"/>
-      <c r="C163" s="65"/>
-      <c r="D163" s="99"/>
-      <c r="E163" s="137"/>
-      <c r="F163" s="134"/>
+      <c r="A163" s="94"/>
+      <c r="B163" s="95"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="98"/>
+      <c r="E163" s="129"/>
+      <c r="F163" s="132"/>
     </row>
     <row r="164" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="103"/>
-      <c r="B164" s="104"/>
-      <c r="C164" s="65"/>
+      <c r="A164" s="94"/>
+      <c r="B164" s="95"/>
+      <c r="C164" s="80"/>
       <c r="D164" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E164" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F164" s="134"/>
+      <c r="F164" s="132"/>
     </row>
     <row r="165" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="103"/>
-      <c r="B165" s="104"/>
-      <c r="C165" s="86" t="s">
+      <c r="A165" s="94"/>
+      <c r="B165" s="95"/>
+      <c r="C165" s="77" t="s">
         <v>303</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E165" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F165" s="134"/>
+      <c r="E165" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="132"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="103"/>
-      <c r="B166" s="104"/>
-      <c r="C166" s="123"/>
-      <c r="D166" s="107" t="s">
+      <c r="A166" s="94"/>
+      <c r="B166" s="95"/>
+      <c r="C166" s="116"/>
+      <c r="D166" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="E166" s="151"/>
-      <c r="F166" s="134"/>
+      <c r="E166" s="130"/>
+      <c r="F166" s="132"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="103"/>
-      <c r="B167" s="104"/>
-      <c r="C167" s="123"/>
-      <c r="D167" s="107"/>
-      <c r="E167" s="151"/>
-      <c r="F167" s="134"/>
+      <c r="A167" s="94"/>
+      <c r="B167" s="95"/>
+      <c r="C167" s="116"/>
+      <c r="D167" s="119"/>
+      <c r="E167" s="130"/>
+      <c r="F167" s="132"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="105"/>
-      <c r="B168" s="106"/>
-      <c r="C168" s="124"/>
-      <c r="D168" s="107"/>
-      <c r="E168" s="137"/>
-      <c r="F168" s="135"/>
+      <c r="A168" s="96"/>
+      <c r="B168" s="97"/>
+      <c r="C168" s="117"/>
+      <c r="D168" s="119"/>
+      <c r="E168" s="129"/>
+      <c r="F168" s="133"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="51" t="s">
         <v>202</v>
       </c>
       <c r="B169" s="56"/>
-      <c r="C169" s="96" t="s">
+      <c r="C169" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="D169" s="97"/>
+      <c r="D169" s="139"/>
       <c r="E169" s="53"/>
       <c r="F169" s="51"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="164"/>
-      <c r="B170" s="102"/>
-      <c r="C170" s="65" t="s">
+      <c r="A170" s="107"/>
+      <c r="B170" s="93"/>
+      <c r="C170" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="D170" s="98" t="s">
+      <c r="D170" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E170" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" s="133"/>
+      <c r="E170" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" s="131"/>
     </row>
     <row r="171" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="165"/>
-      <c r="B171" s="104"/>
-      <c r="C171" s="65"/>
-      <c r="D171" s="99"/>
-      <c r="E171" s="137"/>
-      <c r="F171" s="134"/>
+      <c r="A171" s="108"/>
+      <c r="B171" s="95"/>
+      <c r="C171" s="80"/>
+      <c r="D171" s="98"/>
+      <c r="E171" s="129"/>
+      <c r="F171" s="132"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="165"/>
-      <c r="B172" s="104"/>
-      <c r="C172" s="65"/>
+      <c r="A172" s="108"/>
+      <c r="B172" s="95"/>
+      <c r="C172" s="80"/>
       <c r="D172" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E172" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="134"/>
+      <c r="F172" s="132"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="165"/>
-      <c r="B173" s="104"/>
-      <c r="C173" s="86" t="s">
+      <c r="A173" s="108"/>
+      <c r="B173" s="95"/>
+      <c r="C173" s="77" t="s">
         <v>303</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E173" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F173" s="134"/>
+      <c r="E173" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" s="132"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="165"/>
-      <c r="B174" s="104"/>
-      <c r="C174" s="123"/>
-      <c r="D174" s="107" t="s">
+      <c r="A174" s="108"/>
+      <c r="B174" s="95"/>
+      <c r="C174" s="116"/>
+      <c r="D174" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="E174" s="151"/>
-      <c r="F174" s="134"/>
+      <c r="E174" s="130"/>
+      <c r="F174" s="132"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="165"/>
-      <c r="B175" s="104"/>
-      <c r="C175" s="123"/>
-      <c r="D175" s="107"/>
-      <c r="E175" s="151"/>
-      <c r="F175" s="134"/>
+      <c r="A175" s="108"/>
+      <c r="B175" s="95"/>
+      <c r="C175" s="116"/>
+      <c r="D175" s="119"/>
+      <c r="E175" s="130"/>
+      <c r="F175" s="132"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="166"/>
-      <c r="B176" s="106"/>
-      <c r="C176" s="124"/>
-      <c r="D176" s="107"/>
-      <c r="E176" s="137"/>
-      <c r="F176" s="135"/>
+      <c r="A176" s="109"/>
+      <c r="B176" s="97"/>
+      <c r="C176" s="117"/>
+      <c r="D176" s="119"/>
+      <c r="E176" s="129"/>
+      <c r="F176" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="A54:B59"/>
-    <mergeCell ref="A61:B63"/>
-    <mergeCell ref="A65:B67"/>
-    <mergeCell ref="A69:B71"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A152:B160"/>
-    <mergeCell ref="A109:B112"/>
-    <mergeCell ref="A114:B118"/>
-    <mergeCell ref="A73:B75"/>
-    <mergeCell ref="A77:B81"/>
-    <mergeCell ref="A83:B89"/>
-    <mergeCell ref="A91:B97"/>
-    <mergeCell ref="A99:B101"/>
-    <mergeCell ref="A103:B107"/>
-    <mergeCell ref="A162:B168"/>
-    <mergeCell ref="A170:B176"/>
-    <mergeCell ref="E147:E150"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="C139:C142"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="A120:B126"/>
-    <mergeCell ref="A128:B134"/>
-    <mergeCell ref="A136:B142"/>
-    <mergeCell ref="A144:B150"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="A28:B31"/>
-    <mergeCell ref="A33:B36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="F45:F51"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A38:B43"/>
-    <mergeCell ref="A45:B51"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="D157:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="F91:F97"/>
+    <mergeCell ref="F83:F89"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="G8:K9"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:I81"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F128:F134"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F120:F126"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D109:D110"/>
     <mergeCell ref="F54:F59"/>
     <mergeCell ref="E139:E142"/>
     <mergeCell ref="F144:F150"/>
@@ -6091,60 +6156,47 @@
     <mergeCell ref="F114:F118"/>
     <mergeCell ref="F109:F112"/>
     <mergeCell ref="F103:F107"/>
-    <mergeCell ref="F128:F134"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F120:F126"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="F91:F97"/>
-    <mergeCell ref="F83:F89"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="G8:K9"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:I81"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A28:B31"/>
+    <mergeCell ref="A33:B36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="F45:F51"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A38:B43"/>
+    <mergeCell ref="A45:B51"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="A162:B168"/>
+    <mergeCell ref="A170:B176"/>
+    <mergeCell ref="E147:E150"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="C139:C142"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="A120:B126"/>
+    <mergeCell ref="A128:B134"/>
+    <mergeCell ref="A136:B142"/>
+    <mergeCell ref="A144:B150"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="C123:C126"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C148:C150"/>
@@ -6152,82 +6204,30 @@
     <mergeCell ref="C151:D151"/>
     <mergeCell ref="C152:C155"/>
     <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="A54:B59"/>
+    <mergeCell ref="A61:B63"/>
+    <mergeCell ref="A65:B67"/>
+    <mergeCell ref="A69:B71"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A152:B160"/>
+    <mergeCell ref="A109:B112"/>
+    <mergeCell ref="A114:B118"/>
+    <mergeCell ref="A73:B75"/>
+    <mergeCell ref="A77:B81"/>
+    <mergeCell ref="A83:B89"/>
+    <mergeCell ref="A91:B97"/>
+    <mergeCell ref="A99:B101"/>
+    <mergeCell ref="A103:B107"/>
     <mergeCell ref="C135:D135"/>
     <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="D157:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="D162:D163"/>
     <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D109:D110"/>
     <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:C95"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="C102:D102"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A24:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F65:F67" location="Баги!A2" display="BUG1" xr:uid="{8B817794-A262-490C-9FC5-6328393EFDDF}"/>
@@ -6243,8 +6243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C8A038-496C-4B4A-A863-E8FAA08BD42A}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6585,7 +6585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA41D10-3813-4DEF-8F44-69A30DCC05A5}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
